--- a/natmiOut/OldD7/LR-pairs_lrc2p/F8-Asgr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/F8-Asgr2.xlsx
@@ -531,34 +531,34 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.841608735025161</v>
+        <v>0.8546833333333335</v>
       </c>
       <c r="H2">
-        <v>0.841608735025161</v>
+        <v>2.56405</v>
       </c>
       <c r="I2">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380014</v>
       </c>
       <c r="J2">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380015</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.441324871411942</v>
+        <v>0.4418676666666667</v>
       </c>
       <c r="N2">
-        <v>0.441324871411942</v>
+        <v>1.325603</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.3714228667641463</v>
+        <v>0.377656930238889</v>
       </c>
       <c r="R2">
-        <v>0.3714228667641463</v>
+        <v>3.398912372150001</v>
       </c>
       <c r="S2">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380014</v>
       </c>
       <c r="T2">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,34 +593,34 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.2343782667345</v>
+        <v>1.251276</v>
       </c>
       <c r="H3">
-        <v>1.2343782667345</v>
+        <v>3.753828</v>
       </c>
       <c r="I3">
-        <v>0.4798955277871004</v>
+        <v>0.453487879032787</v>
       </c>
       <c r="J3">
-        <v>0.4798955277871004</v>
+        <v>0.4534878790327871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.441324871411942</v>
+        <v>0.4418676666666667</v>
       </c>
       <c r="N3">
-        <v>0.441324871411942</v>
+        <v>1.325603</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.5447618298402991</v>
+        <v>0.5528984064760001</v>
       </c>
       <c r="R3">
-        <v>0.5447618298402991</v>
+        <v>4.976085658284001</v>
       </c>
       <c r="S3">
-        <v>0.4798955277871004</v>
+        <v>0.453487879032787</v>
       </c>
       <c r="T3">
-        <v>0.4798955277871004</v>
+        <v>0.4534878790327871</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,34 +655,34 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0832202931143414</v>
+        <v>0.1689346666666667</v>
       </c>
       <c r="H4">
-        <v>0.0832202931143414</v>
+        <v>0.506804</v>
       </c>
       <c r="I4">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="J4">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.441324871411942</v>
+        <v>0.4418676666666667</v>
       </c>
       <c r="N4">
-        <v>0.441324871411942</v>
+        <v>1.325603</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.03672718515755084</v>
+        <v>0.07464676697911113</v>
       </c>
       <c r="R4">
-        <v>0.03672718515755084</v>
+        <v>0.6718209028120001</v>
       </c>
       <c r="S4">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="T4">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,34 +717,34 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.412973930540785</v>
+        <v>0.4843330000000001</v>
       </c>
       <c r="H5">
-        <v>0.412973930540785</v>
+        <v>1.452999</v>
       </c>
       <c r="I5">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="J5">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.441324871411942</v>
+        <v>0.4418676666666667</v>
       </c>
       <c r="N5">
-        <v>0.441324871411942</v>
+        <v>1.325603</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.1822556667923962</v>
+        <v>0.2140110925996667</v>
       </c>
       <c r="R5">
-        <v>0.1822556667923962</v>
+        <v>1.926099833397</v>
       </c>
       <c r="S5">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="T5">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
     </row>
   </sheetData>
